--- a/src/test/resources/NegativeDataForDriverFormFields.xlsx
+++ b/src/test/resources/NegativeDataForDriverFormFields.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="71">
   <si>
     <t>firstName</t>
   </si>
@@ -871,28 +871,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -903,14 +903,14 @@
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>17</v>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
@@ -929,14 +929,14 @@
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
@@ -956,13 +956,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
@@ -981,14 +981,14 @@
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>23</v>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1007,14 +1007,14 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
+      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -1030,17 +1030,17 @@
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1063,10 +1063,10 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
@@ -1089,10 +1089,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
@@ -1115,10 +1115,10 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
@@ -1141,10 +1141,10 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
@@ -1167,10 +1167,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>12</v>
@@ -1178,7 +1178,7 @@
       <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1193,10 +1193,10 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>12</v>
@@ -1204,8 +1204,8 @@
       <c r="G26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>52</v>
+      <c r="H26" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -1219,10 +1219,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
@@ -1245,10 +1245,10 @@
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>12</v>
@@ -1271,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>12</v>
@@ -1297,10 +1297,10 @@
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>12</v>
@@ -1323,10 +1323,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>12</v>
@@ -1349,10 +1349,10 @@
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>12</v>
@@ -1375,10 +1375,10 @@
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
@@ -1394,17 +1394,17 @@
       <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="2" t="s">
         <v>65</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>12</v>
@@ -1429,8 +1429,8 @@
       <c r="D35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>67</v>
+      <c r="E35" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>12</v>
@@ -1455,8 +1455,8 @@
       <c r="D36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>68</v>
+      <c r="E36" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>12</v>
@@ -1481,11 +1481,11 @@
       <c r="D37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>60</v>
+      <c r="E37" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>13</v>
@@ -1508,20 +1508,46 @@
         <v>10</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="12" t="s">
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39">
-      <c r="H39" s="13"/>
+    <row r="40">
+      <c r="H40" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
